--- a/plant functional groups-Snow Fence.xlsx
+++ b/plant functional groups-Snow Fence.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audhalbritter/Dropbox/Bergen/China/Master thesis Yao/Phenology/PhenologyYao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23860" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +19,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$31</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
-    <t>functinal types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小丛点地梅</t>
   </si>
   <si>
@@ -152,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Gentiana crassula </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cyananthus incanus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,12 +253,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>species name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>FunctionalTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChineseName </t>
+  </si>
+  <si>
+    <t>SpeciesName</t>
+  </si>
+  <si>
+    <t>Gentiana crassula</t>
   </si>
 </sst>
 </file>
@@ -264,13 +273,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -307,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -320,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -362,12 +371,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -397,12 +406,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -608,357 +617,357 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C31" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
